--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MutualFund.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MutualFund.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Case</t>
   </si>
@@ -159,9 +159,6 @@
     <t>GUID_query</t>
   </si>
   <si>
-    <t>SELECT PP.NAME_OF_FUND from QAT_AMC.AMC_PRODUCT_PROFILE PP INNER JOIN QAT_AMC.AMC_PRODUCT_CHANNEL PC ON PP.PRODUCT_ID = PC.PRODUCT_ID WHERE PP.IS_DELETED=0 AND PC.CHANNEL_CODE = 'MB' ORDER BY (PP.NAME_OF_FUND)</t>
-  </si>
-  <si>
     <t>SELECT TT.HOST_REFERENCE_NO FROM DC_TRANSACTION TT WHERE TT.TRANSACTION_ID = '{TRAN_ID}'</t>
   </si>
   <si>
@@ -205,6 +202,18 @@
   </si>
   <si>
     <t>SELECT TT.TRAN_AMOUNT FROM QAT_AMC.AMC_TRANSACTION TT WHERE TT.GUID='{GUID}'</t>
+  </si>
+  <si>
+    <t>SELECT PP.NAME_OF_FUND from QAT_AMC.AMC_PRODUCT_PROFILE PP INNER JOIN QAT_AMC.AMC_PRODUCT_CHANNEL PC ON PP.PRODUCT_ID = PC.PRODUCT_ID WHERE PP.IS_DELETED=0 AND PC.IS_ENABLED = 1 AND PC.CHANNEL_CODE = 'MB' ORDER BY (PP.NAME_OF_FUND)</t>
+  </si>
+  <si>
+    <t>When user try to invest in mutual fund (AbBY Case Two)</t>
+  </si>
+  <si>
+    <t>HBL Cash Fund</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -557,11 +566,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,7 +610,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -657,19 +664,19 @@
         <v>43</v>
       </c>
       <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>51</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -683,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>38</v>
@@ -698,7 +705,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>17</v>
@@ -716,13 +723,13 @@
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
         <v>4</v>
@@ -731,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
@@ -752,57 +759,143 @@
         <v>44</v>
       </c>
       <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>60</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="P3" s="1"/>
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -847,21 +940,8 @@
       <c r="L9" s="3"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L12"/>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MutualFund.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MutualFund.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="214">
   <si>
     <t>Case</t>
   </si>
@@ -132,9 +132,6 @@
     <t>statement_counter</t>
   </si>
   <si>
-    <t>When user try to invest in mutual fund</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -207,20 +204,470 @@
     <t>SELECT PP.NAME_OF_FUND from QAT_AMC.AMC_PRODUCT_PROFILE PP INNER JOIN QAT_AMC.AMC_PRODUCT_CHANNEL PC ON PP.PRODUCT_ID = PC.PRODUCT_ID WHERE PP.IS_DELETED=0 AND PC.IS_ENABLED = 1 AND PC.CHANNEL_CODE = 'MB' ORDER BY (PP.NAME_OF_FUND)</t>
   </si>
   <si>
-    <t>When user try to invest in mutual fund (AbBY Case Two)</t>
-  </si>
-  <si>
     <t>HBL Cash Fund</t>
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 462</t>
+  </si>
+  <si>
+    <t>pakistan39</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>HBL Islamic Money Market Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 461</t>
+  </si>
+  <si>
+    <t>pakistan38</t>
+  </si>
+  <si>
+    <t>500001</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 460</t>
+  </si>
+  <si>
+    <t>pakistan37</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 459</t>
+  </si>
+  <si>
+    <t>pakistan36</t>
+  </si>
+  <si>
+    <t>HBL Islamic Equity Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 458</t>
+  </si>
+  <si>
+    <t>pakistan35</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 457</t>
+  </si>
+  <si>
+    <t>pakistan34</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 456</t>
+  </si>
+  <si>
+    <t>pakistan33</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 455</t>
+  </si>
+  <si>
+    <t>pakistan32</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 454</t>
+  </si>
+  <si>
+    <t>pakistan31</t>
+  </si>
+  <si>
+    <t>16699</t>
+  </si>
+  <si>
+    <t>23397900303403</t>
+  </si>
+  <si>
+    <t>HBL Government Securities Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 453</t>
+  </si>
+  <si>
+    <t>pakistan30</t>
+  </si>
+  <si>
+    <t>1200.45</t>
+  </si>
+  <si>
+    <t>22647000001903</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 452</t>
+  </si>
+  <si>
+    <t>pakistan29</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 451</t>
+  </si>
+  <si>
+    <t>pakistan28</t>
+  </si>
+  <si>
+    <t>22647000000401</t>
+  </si>
+  <si>
+    <t>HBL Money Market Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 450</t>
+  </si>
+  <si>
+    <t>pakistan27</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>00476000135901</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 449</t>
+  </si>
+  <si>
+    <t>pakistan26</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 448</t>
+  </si>
+  <si>
+    <t>pakistan25</t>
+  </si>
+  <si>
+    <t>HBL Energy Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 447</t>
+  </si>
+  <si>
+    <t>pakistan24</t>
+  </si>
+  <si>
+    <t>HBL-IFPF-Islamic Capital Preservation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 446</t>
+  </si>
+  <si>
+    <t>pakistan23</t>
+  </si>
+  <si>
+    <t>HBL-FPF-Special Income Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 445</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>HBL Stock Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 444</t>
+  </si>
+  <si>
+    <t>pakistan21</t>
+  </si>
+  <si>
+    <t>HBL Pension Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 443</t>
+  </si>
+  <si>
+    <t>pakistan20</t>
+  </si>
+  <si>
+    <t>HBL Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 442</t>
+  </si>
+  <si>
+    <t>pakistan19</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 441</t>
+  </si>
+  <si>
+    <t>pakistan18</t>
+  </si>
+  <si>
+    <t>HBL Islamic Stock Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 440</t>
+  </si>
+  <si>
+    <t>pakistan17</t>
+  </si>
+  <si>
+    <t>HBL Islamic Pension Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 439</t>
+  </si>
+  <si>
+    <t>pakistan16</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 438</t>
+  </si>
+  <si>
+    <t>pakistan15</t>
+  </si>
+  <si>
+    <t>HBL Islamic Income Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 437</t>
+  </si>
+  <si>
+    <t>pakistan14</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Strategic Allocation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 436</t>
+  </si>
+  <si>
+    <t>pakistan13</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 435</t>
+  </si>
+  <si>
+    <t>pakistan12</t>
+  </si>
+  <si>
+    <t>HBL Islamic Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 434</t>
+  </si>
+  <si>
+    <t>pakistan11</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 433</t>
+  </si>
+  <si>
+    <t>pakistan10</t>
+  </si>
+  <si>
+    <t>HBL Islamic Asset Allocation Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 432</t>
+  </si>
+  <si>
+    <t>pakistan9</t>
+  </si>
+  <si>
+    <t>HBL Investment Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 431</t>
+  </si>
+  <si>
+    <t>pakistan8</t>
+  </si>
+  <si>
+    <t>HBL Income Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 430</t>
+  </si>
+  <si>
+    <t>pakistan7</t>
+  </si>
+  <si>
+    <t>HBL Growth Fund</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 429</t>
+  </si>
+  <si>
+    <t>pakistan6</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 428</t>
+  </si>
+  <si>
+    <t>pakistan5</t>
+  </si>
+  <si>
+    <t>HBL Financial Planning Fund-Conservative Allocation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 427</t>
+  </si>
+  <si>
+    <t>pakistan4</t>
+  </si>
+  <si>
+    <t>HBL Financial Planning Fund-Active Allocation Plan</t>
+  </si>
+  <si>
+    <t>You have successfully invested in HBL Mutual Funds, for further assistance, please call HBL PhoneBanking on 021 - 111 - 111 - 426</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Cash Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Energy Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Equity Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Financial Planning Fund-Active Allocation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Financial Planning Fund-Conservative Allocation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Government Securities Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Growth Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Income Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Investment Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Asset Allocation Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Equity Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Financial Planning Fund-Active Allocation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Financial Planning Fund-Conservative Allocation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL Islamic Financial Planning Fund-Strategic Allocation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Income Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Money Market Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Pension Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Islamic Stock Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Money Market Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Multi Asset Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Pension Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Mutual Fund HBL Stock Fund MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL-FPF-Special Income Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund HBL-IFPF-Islamic Capital Preservation Plan MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Decimal value MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with 0 amount MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that customer can not perform transaction greater than available account balance MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that customer can not perform transaction with invalid Transaction password MFMB12</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC less than initial investment minimum limit MFMB12</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC greater than initial investment maximum limit MFMB12</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC less than initial re investment minimum limit MFMB12</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC greater than initial re investment maximum limit MFMB12</t>
+  </si>
+  <si>
+    <t>To Verify that customer can not apply for AMC with investment limit while reinvestments limits are applicable MFMB12</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Locked Transaction Password LTPMB</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with Null Transaction Password NTP22</t>
+  </si>
+  <si>
+    <t>To verify that PSD(Y) Customer can successfully apply for Mutual Fund PSDYMB</t>
+  </si>
+  <si>
+    <t>To verify that PSD(N) Customer can successfully apply for Mutual Fund PSDNMB</t>
+  </si>
+  <si>
+    <t>To verify that PSD(N) Customer can not apply for Mutual Fund with De linked account LINKMB</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Mutual Fund with No mutual Fund NOMFMB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,11 +680,6 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -278,14 +720,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,14 +1008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="117.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="224.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="12" width="20" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -582,9 +1029,10 @@
     <col min="26" max="26" width="9" customWidth="1"/>
     <col min="27" max="27" width="21.42578125" customWidth="1"/>
     <col min="28" max="28" width="27.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,9 +1043,9 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F1" t="s">
@@ -607,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -628,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -661,287 +1109,3848 @@
         <v>21</v>
       </c>
       <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>51</v>
+      <c r="AA2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="G28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="R28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="M29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AB30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF32" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="E33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="34" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="R34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF34" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="8" t="s">
+    </row>
+    <row r="38" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="M38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AB39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="Z40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L11"/>
+      <c r="AF40" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
